--- a/Cadastro.xlsx
+++ b/Cadastro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tipo do Pavimento</t>
   </si>
@@ -38,27 +38,12 @@
   </si>
   <si>
     <t>Atraso</t>
-  </si>
-  <si>
-    <t>Cimentado</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>1.45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -111,13 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,32 +427,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44986</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44986</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
